--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_8_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_8_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36382.2345011799</v>
+        <v>7240064.665734795</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36382.2345011799</v>
+        <v>7240064.665734795</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16702.95299235007</v>
+        <v>1002177.179541004</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16702.95299235007</v>
+        <v>1002177.179541004</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1265345667.759895</v>
+        <v>50503415.86748195</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10226.22595790434</v>
+        <v>1112525.084507581</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19981.96890289344</v>
+        <v>2151574.179549647</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29737.39508020576</v>
+        <v>3190560.23782404</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40966.1487628427</v>
+        <v>4219266.402617401</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>52039.68628386373</v>
+        <v>5217084.551249133</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>63113.22380488476</v>
+        <v>6214902.699880864</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>74186.7613259058</v>
+        <v>7212720.84851259</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>86068.46422816989</v>
+        <v>8241919.467557463</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>97740.9954849467</v>
+        <v>9198069.745066227</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>109514.4765377183</v>
+        <v>10174569.05864472</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>120258.2339876578</v>
+        <v>11213555.1169191</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>130206.5086093145</v>
+        <v>12221653.15903188</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>140309.9993925874</v>
+        <v>13260639.21730628</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>150413.4901758602</v>
+        <v>14299625.27558068</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>160516.9809591331</v>
+        <v>15338611.33385508</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>262</v>
@@ -27052,10 +27052,10 @@
         <v>-2.609251729445532e-11</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27064,7 +27064,7 @@
         <v>217.0000000000261</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>132.9999999999739</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27153,13 +27153,13 @@
         <v>490</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>498</v>
